--- a/ПР320.xlsx
+++ b/ПР320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\работа\§01.01.02 Современные технологии программирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0366AB1F-974F-43B5-9FA1-FF6ECC857E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA53974C-109D-407A-84EE-498F89B1D2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
   <si>
     <t>Лавринов Антон Александрович</t>
   </si>
@@ -522,7 +522,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,7 +828,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>39</v>
@@ -869,7 +869,9 @@
       <c r="O7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="9"/>
+      <c r="P7" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -1049,7 +1051,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>39</v>
@@ -1082,7 +1084,9 @@
         <v>39</v>
       </c>
       <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -1212,7 +1216,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>39</v>
@@ -1244,7 +1248,9 @@
       <c r="L15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="N15" s="9" t="s">
         <v>39</v>
       </c>

--- a/ПР320.xlsx
+++ b/ПР320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\работа\§01.01.02 Современные технологии программирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA53974C-109D-407A-84EE-498F89B1D2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5009D4-0349-4066-86AA-346DF174A471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="41">
   <si>
     <t>Лавринов Антон Александрович</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1109,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -1144,7 +1147,9 @@
       <c r="N13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -1163,7 +1168,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>39</v>
@@ -1195,9 +1200,15 @@
       <c r="L14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
@@ -1216,7 +1227,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>39</v>
@@ -1254,7 +1265,9 @@
       <c r="N15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -1273,7 +1286,7 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>39</v>
@@ -1288,15 +1301,27 @@
         <v>39</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="L16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
+      <c r="P16" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>

--- a/ПР320.xlsx
+++ b/ПР320.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\работа\§01.01.02 Современные технологии программирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5009D4-0349-4066-86AA-346DF174A471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E953AD09-AA5B-4524-B37E-C3EF86097B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-144" yWindow="0" windowWidth="15951" windowHeight="8673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="41">
   <si>
     <t>Лавринов Антон Александрович</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,7 +831,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>39</v>
@@ -875,7 +875,9 @@
       <c r="P7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -939,7 +941,7 @@
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>39</v>
@@ -965,18 +967,26 @@
       <c r="J9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="V9" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
@@ -1054,7 +1064,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>39</v>
@@ -1090,7 +1100,9 @@
       <c r="N12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>

--- a/ПР320.xlsx
+++ b/ПР320.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\работа\§01.01.02 Современные технологии программирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E953AD09-AA5B-4524-B37E-C3EF86097B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51491A1B-CD13-48AB-BB0C-8BCB4D5D610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="0" windowWidth="15951" windowHeight="8673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
   <si>
     <t>Лавринов Антон Александрович</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,14 +794,20 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>

--- a/ПР320.xlsx
+++ b/ПР320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\работа\§01.01.02 Современные технологии программирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51491A1B-CD13-48AB-BB0C-8BCB4D5D610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D8420-3738-4783-940E-908D4EE7AE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="45">
   <si>
     <t>Лавринов Антон Александрович</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>23-25</t>
   </si>
 </sst>
 </file>
@@ -178,12 +190,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -213,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +258,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,21 +543,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.296875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.796875" style="4" customWidth="1"/>
-    <col min="3" max="26" width="5.796875" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.796875" style="2"/>
+    <col min="3" max="30" width="5.796875" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
@@ -611,14 +632,26 @@
       <c r="Z1" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <f>COUNTA(C2:AT2)/COUNTA($C$1:$AT$1)</f>
-        <v>0.41666666666666669</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>39</v>
@@ -664,14 +697,18 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B16" si="0">COUNTA(C3:AT3)/COUNTA($C$1:$AT$1)</f>
-        <v>4.1666666666666664E-2</v>
+        <f>COUNTA(C3:AT3)/COUNTA($C$1:$AT$1)</f>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>39</v>
@@ -699,14 +736,18 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <f t="shared" ref="B4:B16" si="0">COUNTA(C4:AT4)/COUNTA($C$1:$AT$1)</f>
+        <v>0.39285714285714285</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>39</v>
@@ -754,8 +795,12 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -787,14 +832,18 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
@@ -830,14 +879,18 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>39</v>
@@ -893,14 +946,18 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>39</v>
@@ -940,14 +997,18 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>39</v>
@@ -997,8 +1058,12 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1030,8 +1095,12 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1063,14 +1132,18 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>39</v>
@@ -1109,7 +1182,9 @@
       <c r="O12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="9"/>
+      <c r="P12" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1120,14 +1195,18 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -1168,7 +1247,9 @@
       <c r="O13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="9"/>
+      <c r="P13" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -1179,14 +1260,18 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>39</v>
@@ -1238,14 +1323,18 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>39</v>
@@ -1297,14 +1386,18 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>39</v>
@@ -1350,6 +1443,10 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ПР320.xlsx
+++ b/ПР320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\работа\§01.01.02 Современные технологии программирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D8420-3738-4783-940E-908D4EE7AE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C429926E-B7EC-47E5-BAF7-68B6CD7DF518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
   <si>
     <t>Лавринов Антон Александрович</t>
   </si>
@@ -546,7 +546,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -1250,7 +1250,9 @@
       <c r="P13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>

--- a/ПР320.xlsx
+++ b/ПР320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\работа\§01.01.02 Современные технологии программирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C429926E-B7EC-47E5-BAF7-68B6CD7DF518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB30E471-1AB4-4432-9407-7C779E237058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
   <si>
     <t>Лавринов Антон Александрович</t>
   </si>
@@ -546,7 +546,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,7 +843,7 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>0.17857142857142858</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
@@ -871,7 +871,9 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="S6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -890,7 +892,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>39</v>
@@ -938,7 +940,9 @@
         <v>39</v>
       </c>
       <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -1143,7 +1147,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>39</v>
@@ -1185,7 +1189,9 @@
       <c r="P12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -1206,7 +1212,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -1253,7 +1259,9 @@
       <c r="Q13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="9"/>
+      <c r="R13" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -1272,8 +1280,8 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.4642857142857143</v>
+        <f>COUNTA(C14:AT14)/COUNTA($C$1:$AT$1)</f>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>39</v>
@@ -1314,9 +1322,13 @@
       <c r="O14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="9"/>
+      <c r="P14" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="R14" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -1336,7 +1348,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.4642857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>39</v>
@@ -1377,9 +1389,13 @@
       <c r="O15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="9"/>
+      <c r="P15" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="R15" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>

--- a/ПР320.xlsx
+++ b/ПР320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\работа\§01.01.02 Современные технологии программирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB30E471-1AB4-4432-9407-7C779E237058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7159B62-0A9B-47B4-892B-9423AD7BCEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="45">
   <si>
     <t>Лавринов Антон Александрович</t>
   </si>
@@ -546,7 +546,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,7 +843,7 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
@@ -859,8 +859,12 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="M6" s="9" t="s">
         <v>39</v>
       </c>
@@ -1147,7 +1151,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>39</v>
@@ -1192,8 +1196,12 @@
       <c r="Q12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="R12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -1212,7 +1220,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -1262,7 +1270,9 @@
       <c r="R13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="S13" s="9"/>
+      <c r="S13" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>

--- a/ПР320.xlsx
+++ b/ПР320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\работа\§01.01.02 Современные технологии программирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7159B62-0A9B-47B4-892B-9423AD7BCEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E7A05-9BA4-4582-A049-D382C1790AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="45">
   <si>
     <t>Лавринов Антон Александрович</t>
   </si>
@@ -546,7 +546,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.6071428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -1273,7 +1273,9 @@
       <c r="S13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="9"/>
+      <c r="T13" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
